--- a/medicine/Enfance/Journal_d'une_princesse/Journal_d'une_princesse.xlsx
+++ b/medicine/Enfance/Journal_d'une_princesse/Journal_d'une_princesse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Journal_d%27une_princesse</t>
+          <t>Journal_d'une_princesse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Journal d'une princesse est une série littéraire à succès, écrite par l'auteur américaine Meg Cabot.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Journal_d%27une_princesse</t>
+          <t>Journal_d'une_princesse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Thématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À quatorze ans, Mia est une collégienne new-yorkaise comme les autres. Mais le jour où elle apprend que son père qui vit en Europe est en réalité le prince de Génovie, une petite principauté au bord de la Méditerranée les choses se gâtent... Voila Mia héritière, et ça ne lui plait pas du tout.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Journal_d%27une_princesse</t>
+          <t>Journal_d'une_princesse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Résumé détaillé des tomes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Tome 1 : Journal d'une princesse / La grande nouvelle
 À 14 ans bientôt 15, Mia est une ado new-yorkaise comme les autres. Elle va au collège, a une meilleure amie, est secrètement amoureuse du plus beau garçon de l'école et déteste les maths. Tous semble donc parfaitement normal. Jusqu’au jour où Mia apprend que son père est en réalité à la tête d’une petite principauté au bord de la mer Méditerranée, qu’elle est donc une princesse, et que sa vie va devoir changer. Voilà Mia obligée de faire ses premiers pas en tant que princesse héritière... Bonjour les dégâts !
@@ -576,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Journal_d%27une_princesse</t>
+          <t>Journal_d'une_princesse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,7 +610,9 @@
           <t>Tomes spéciaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ces tomes sont des hors-séries.[pas clair]
 Encore plus d'histoires de princesse / L'art d'être une princesse (trois courtes histoires prenant place après les tomes 4, 6 et 7)
@@ -608,7 +626,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Journal_d%27une_princesse</t>
+          <t>Journal_d'une_princesse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,7 +644,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Amélia « Mia » Thermopolis ou Amélia Mignonette Thermopolis Renaldi : Personnage principal, Mia est la princesse de Genovia. Plutôt timide, elle se fait traiter de mutante par ses camarades, manquant parfois de confiance en elle. Elle confie tout à son journal. Son chat, Fat Louie, est son meilleur confident.
 Lilly Moscovitz : Meilleure amie de Mia, elle est très intelligente et a un fort caractère. Au cours des différents épisodes, cette adolescente un peu ronde sort avec Boris Pelkowski, J.P et Kenny. Mais, une forte dispute les sépare dans le tome 9. Dans le tome 10, Lilly revient vers Mia et reprend peu à peu sa place auprès d'elle.
@@ -662,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Journal_d%27une_princesse</t>
+          <t>Journal_d'une_princesse</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -680,7 +700,9 @@
           <t>Adaptation cinématographique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tribulations de Mia ont été portées à l'écran en 2001 avec Princesse malgré elle et en 2004 avec Un mariage de princesse. Une troisième partie était prévue, mais Anne Hathaway, l'actrice qui incarne Mia dans les deux premiers films, a vu son contrat rompu par les studios Disney. 
 Les films sont mentionnés dans le journal de Mia ; selon elle, le réalisateur a pris quelques libertés, notamment sur son père, lequel n'était pas mort comme le présentait le réalisateur.  Par ailleurs, Mia et Michaël sortent ensemble à la fin du premier film, ce qui n'est pas cohérent. Le plus intolérable aux yeux de Mia est que sa grand-mère, Clarisse Renaldo, est beaucoup plus gentille dans le film que dans la réalité.
